--- a/data/158/BOJ/LTPLR.xlsx
+++ b/data/158/BOJ/LTPLR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AEF2"/>
+  <dimension ref="A1:AEG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4399,30 +4399,35 @@
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AEB1" s="1" t="inlineStr">
+      <c r="AEC1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AEC1" s="1" t="inlineStr">
+      <c r="AED1" s="1" t="inlineStr">
         <is>
           <t>form_c</t>
         </is>
       </c>
-      <c r="AED1" s="1" t="inlineStr">
+      <c r="AEE1" s="1" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
-      <c r="AEE1" s="1" t="inlineStr">
+      <c r="AEF1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AEF1" s="1" t="inlineStr">
+      <c r="AEG1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -6849,28 +6854,31 @@
       <c r="ADZ2" t="n">
         <v>1.1</v>
       </c>
-      <c r="AEA2" t="inlineStr">
+      <c r="AEA2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AEB2" t="inlineStr">
         <is>
           <t>RMLTPL</t>
         </is>
       </c>
-      <c r="AEB2" t="inlineStr">
+      <c r="AEC2" t="inlineStr">
         <is>
           <t>Interest Rates and Bond Yields, Long-Term Prime Lending Rates (End of Period)</t>
         </is>
       </c>
-      <c r="AEC2" t="inlineStr">
+      <c r="AED2" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="AED2" t="inlineStr"/>
-      <c r="AEE2" t="inlineStr">
+      <c r="AEE2" t="inlineStr"/>
+      <c r="AEF2" t="inlineStr">
         <is>
           <t>Prime Rate</t>
         </is>
       </c>
-      <c r="AEF2" t="inlineStr">
+      <c r="AEG2" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
